--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2716.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2716.xlsx
@@ -354,7 +354,7 @@
         <v>2.404820623997803</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.353957551388673</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2716.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2716.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167449629932354</v>
+        <v>1.543037414550781</v>
       </c>
       <c r="B1">
-        <v>2.404820623997803</v>
+        <v>3.800189256668091</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.685062170028687</v>
       </c>
       <c r="D1">
-        <v>2.353957551388673</v>
+        <v>0.6973972320556641</v>
       </c>
       <c r="E1">
-        <v>1.213554200969327</v>
+        <v>1.028350830078125</v>
       </c>
     </row>
   </sheetData>
